--- a/assets/燃机名称表.xlsx
+++ b/assets/燃机名称表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\zidan\Desktop\myUCApp\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\TheFourthDispatcher\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5D1F77-ADFF-4C45-A384-F4E097DF17FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEBFCA-5946-4926-80D6-CA569B126E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>别名</t>
   </si>
@@ -179,13 +179,106 @@
   </si>
   <si>
     <t>浔宝</t>
+  </si>
+  <si>
+    <t>输出名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>半山电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>常山电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙游电厂</t>
+  </si>
+  <si>
+    <t>唐绍电厂</t>
+  </si>
+  <si>
+    <t>桐燃电厂</t>
+  </si>
+  <si>
+    <t>龙湾电厂</t>
+  </si>
+  <si>
+    <t>下沙电厂</t>
+  </si>
+  <si>
+    <t>萧山电厂</t>
+  </si>
+  <si>
+    <t>新城电厂</t>
+  </si>
+  <si>
+    <t>新泓口电厂</t>
+  </si>
+  <si>
+    <t>浔宝电厂</t>
+  </si>
+  <si>
+    <t>长燃电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>德能电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>华舜电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉能电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电厂</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>金华燃机电厂</t>
+  </si>
+  <si>
+    <t>柯城电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝天电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇海电厂</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +322,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -278,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,6 +444,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +753,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,7 +768,7 @@
     <col min="5" max="5" width="14.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,8 +784,11 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -684,8 +804,11 @@
       <c r="E2" s="5">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -701,8 +824,11 @@
       <c r="E3" s="8">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -718,8 +844,11 @@
       <c r="E4" s="8">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -735,8 +864,11 @@
       <c r="E5" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -752,8 +884,11 @@
       <c r="E6" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -769,8 +904,11 @@
       <c r="E7" s="8">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -786,8 +924,11 @@
       <c r="E8" s="8">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -803,8 +944,11 @@
       <c r="E9" s="8">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -820,8 +964,11 @@
       <c r="E10" s="8">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -837,8 +984,11 @@
       <c r="E11" s="8">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -854,8 +1004,11 @@
       <c r="E12" s="8">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -871,8 +1024,11 @@
       <c r="E13" s="8">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -888,8 +1044,11 @@
       <c r="E14" s="8">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -905,8 +1064,11 @@
       <c r="E15" s="8">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -917,13 +1079,16 @@
         <v>7</v>
       </c>
       <c r="D16" s="4">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="E16" s="8">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -939,8 +1104,11 @@
       <c r="E17" s="8">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -956,8 +1124,11 @@
       <c r="E18" s="8">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -973,8 +1144,11 @@
       <c r="E19" s="8">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -990,8 +1164,11 @@
       <c r="E20" s="8">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1007,8 +1184,11 @@
       <c r="E21" s="8">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1024,8 +1204,11 @@
       <c r="E22" s="8">
         <v>0.23799999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1041,8 +1224,11 @@
       <c r="E23" s="8">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -1058,8 +1244,11 @@
       <c r="E24" s="8">
         <v>0.246</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
@@ -1075,8 +1264,11 @@
       <c r="E25" s="8">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
@@ -1091,6 +1283,9 @@
       </c>
       <c r="E26" s="8">
         <v>0.23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/assets/燃机名称表.xlsx
+++ b/assets/燃机名称表.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\TheFourthDispatcher\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEBFCA-5946-4926-80D6-CA569B126E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E97CC7-747A-4D6C-A728-2118979300A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>别名</t>
   </si>
@@ -273,12 +284,23 @@
     <t>镇海电厂</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>龙油气</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙油</t>
+  </si>
+  <si>
+    <t>单机出力下限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +366,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -392,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +476,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +788,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,10 +800,11 @@
     <col min="2" max="2" width="14.125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,14 +817,17 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -801,14 +840,17 @@
       <c r="D2" s="4">
         <v>325</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
+        <v>250</v>
+      </c>
+      <c r="F2" s="5">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,14 +863,17 @@
       <c r="D3" s="4">
         <v>325</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
+        <v>250</v>
+      </c>
+      <c r="F3" s="8">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -841,14 +886,18 @@
       <c r="D4" s="4">
         <v>400</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
+        <f t="shared" ref="E3:E27" si="0">D4*0.75</f>
+        <v>300</v>
+      </c>
+      <c r="F4" s="8">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -861,14 +910,17 @@
       <c r="D5" s="4">
         <v>325</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
+        <v>250</v>
+      </c>
+      <c r="F5" s="8">
         <v>0.2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -881,14 +933,17 @@
       <c r="D6" s="4">
         <v>50</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
+        <v>40</v>
+      </c>
+      <c r="F6" s="8">
         <v>0.25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -901,14 +956,17 @@
       <c r="D7" s="4">
         <v>345</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
+        <v>260</v>
+      </c>
+      <c r="F7" s="8">
         <v>0.19500000000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -921,14 +979,18 @@
       <c r="D8" s="4">
         <v>80</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F8" s="8">
         <v>0.23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -941,14 +1003,18 @@
       <c r="D9" s="4">
         <v>400</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="F9" s="8">
         <v>0.19500000000000001</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -961,14 +1027,17 @@
       <c r="D10" s="4">
         <v>150</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
+        <v>110</v>
+      </c>
+      <c r="F10" s="8">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -981,14 +1050,17 @@
       <c r="D11" s="4">
         <v>150</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
+        <v>110</v>
+      </c>
+      <c r="F11" s="8">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1001,14 +1073,17 @@
       <c r="D12" s="4">
         <v>90</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8">
         <v>0.23</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1021,14 +1096,17 @@
       <c r="D13" s="4">
         <v>50</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8">
         <v>0.253</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1041,14 +1119,18 @@
       <c r="D14" s="4">
         <v>150</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+      <c r="F14" s="8">
         <v>0.22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1061,14 +1143,17 @@
       <c r="D15" s="4">
         <v>330</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="4">
+        <v>250</v>
+      </c>
+      <c r="F15" s="8">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1081,16 +1166,19 @@
       <c r="D16" s="4">
         <v>115</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="4">
+        <v>90</v>
+      </c>
+      <c r="F16" s="8">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>35</v>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>36</v>
@@ -1101,56 +1189,66 @@
       <c r="D17" s="4">
         <v>150</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="4">
+        <v>110</v>
+      </c>
+      <c r="F17" s="8">
         <v>0.246</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4">
+        <v>150</v>
+      </c>
+      <c r="E18" s="4">
+        <v>110</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
         <v>100</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F19" s="8">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4">
-        <v>330</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>41</v>
@@ -1161,116 +1259,135 @@
       <c r="D20" s="4">
         <v>330</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="4">
+        <v>250</v>
+      </c>
+      <c r="F20" s="8">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>330</v>
+      </c>
+      <c r="E21" s="4">
+        <v>250</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4">
         <v>90</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="4">
+        <v>70</v>
+      </c>
+      <c r="F22" s="8">
         <v>0.23</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4">
-        <v>320</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="F22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="4">
-        <v>330</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>48</v>
+        <v>320</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="4">
+        <v>330</v>
+      </c>
+      <c r="E24" s="4">
+        <v>250</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4">
         <v>135</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="4">
+        <v>100</v>
+      </c>
+      <c r="F25" s="8">
         <v>0.246</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4">
-        <v>100</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0.23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>51</v>
@@ -1281,10 +1398,38 @@
       <c r="D26" s="4">
         <v>100</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F26" s="8">
         <v>0.23</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4">
+        <v>100</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="G27" t="s">
         <v>64</v>
       </c>
     </row>

--- a/assets/燃机名称表.xlsx
+++ b/assets/燃机名称表.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\TheFourthDispatcher\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA6932B-AB76-4426-A064-2CF956827035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C554B88B-E800-409F-84DD-064783CE58AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="别名" sheetId="4" r:id="rId1"/>
+    <sheet name="参数" sheetId="1" r:id="rId2"/>
+    <sheet name="当日量测" sheetId="2" r:id="rId3"/>
+    <sheet name="原始数据" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -356,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>别名</t>
   </si>
@@ -687,9 +688,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +764,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -807,7 +814,7 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -874,10 +881,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1179,644 +1186,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3EC31A-D1AF-4A01-B48D-BF39044225E5}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14">
+      <c r="C2" s="14">
         <v>325</v>
       </c>
+      <c r="D2" s="16">
+        <v>260</v>
+      </c>
       <c r="E2" s="16">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14">
+        <v>400</v>
+      </c>
+      <c r="D3" s="19">
         <v>260</v>
       </c>
-      <c r="F2" s="16">
+      <c r="E3" s="19">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>325</v>
+      </c>
+      <c r="D4" s="19">
+        <v>250</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14">
+        <v>50</v>
+      </c>
+      <c r="D5" s="19">
+        <v>35</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14">
+        <v>345</v>
+      </c>
+      <c r="D6" s="19">
+        <v>220</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
+        <v>80</v>
+      </c>
+      <c r="D7" s="19">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14">
+        <v>400</v>
+      </c>
+      <c r="D8" s="19">
+        <v>280</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14">
+        <v>150</v>
+      </c>
+      <c r="D9" s="19">
+        <v>100</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14">
+        <v>90</v>
+      </c>
+      <c r="D10" s="19">
+        <v>60</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14">
+        <v>50</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.253</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14">
+        <v>150</v>
+      </c>
+      <c r="D12" s="19">
+        <v>95</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="14">
+        <v>330</v>
+      </c>
+      <c r="D13" s="19">
+        <v>270</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14">
+        <v>205</v>
+      </c>
+      <c r="D14" s="19">
+        <v>180</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="14">
+        <v>130</v>
+      </c>
+      <c r="D15" s="19">
+        <v>120</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.246</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14">
+        <v>100</v>
+      </c>
+      <c r="D16" s="19">
+        <v>80</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14">
+        <v>330</v>
+      </c>
+      <c r="D17" s="19">
+        <v>250</v>
+      </c>
+      <c r="E17" s="19">
         <v>0.20300000000000001</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="F17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14">
-        <v>325</v>
-      </c>
-      <c r="E3" s="16">
-        <v>260</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="C18" s="14">
+        <v>90</v>
+      </c>
+      <c r="D18" s="19">
+        <v>60</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="14">
+        <v>280</v>
+      </c>
+      <c r="D19" s="19">
+        <v>220</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="14">
+        <v>330</v>
+      </c>
+      <c r="D20" s="19">
+        <v>280</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="14">
+        <v>135</v>
+      </c>
+      <c r="D21" s="19">
+        <v>85</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.246</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14">
-        <v>400</v>
-      </c>
-      <c r="E4" s="19">
-        <v>260</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="14">
-        <v>325</v>
-      </c>
-      <c r="E5" s="19">
-        <v>250</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14">
-        <v>50</v>
-      </c>
-      <c r="E6" s="19">
-        <v>35</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="14">
-        <v>345</v>
-      </c>
-      <c r="E7" s="19">
-        <v>220</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14">
-        <v>80</v>
-      </c>
-      <c r="E8" s="19">
-        <v>50</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="C22" s="14">
+        <v>100</v>
+      </c>
+      <c r="D22" s="19">
+        <v>70</v>
+      </c>
+      <c r="E22" s="19">
         <v>0.23</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14">
-        <v>400</v>
-      </c>
-      <c r="E9" s="19">
-        <v>280</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="14">
-        <v>150</v>
-      </c>
-      <c r="E10" s="19">
-        <v>100</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14">
-        <v>150</v>
-      </c>
-      <c r="E11" s="19">
-        <v>100</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="14">
-        <v>90</v>
-      </c>
-      <c r="E12" s="19">
-        <v>60</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="14">
-        <v>50</v>
-      </c>
-      <c r="E13" s="19">
-        <v>30</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.253</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14">
-        <v>150</v>
-      </c>
-      <c r="E14" s="19">
-        <v>95</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0.22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="14">
-        <v>330</v>
-      </c>
-      <c r="E15" s="19">
-        <v>270</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="14">
-        <v>205</v>
-      </c>
-      <c r="E16" s="19">
-        <v>180</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="14">
-        <v>130</v>
-      </c>
-      <c r="E17" s="19">
-        <v>120</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0.246</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="14">
-        <v>130</v>
-      </c>
-      <c r="E18" s="19">
-        <v>120</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0.246</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="14">
-        <v>100</v>
-      </c>
-      <c r="E19" s="19">
-        <v>80</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="14">
-        <v>330</v>
-      </c>
-      <c r="E20" s="19">
-        <v>250</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="14">
-        <v>330</v>
-      </c>
-      <c r="E21" s="19">
-        <v>250</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14">
-        <v>90</v>
-      </c>
-      <c r="E22" s="19">
-        <v>60</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0.23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="14">
-        <v>280</v>
-      </c>
-      <c r="E23" s="19">
-        <v>220</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="14">
-        <v>330</v>
-      </c>
-      <c r="E24" s="19">
-        <v>280</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="G24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="14">
-        <v>135</v>
-      </c>
-      <c r="E25" s="19">
-        <v>85</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0.246</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="14">
-        <v>100</v>
-      </c>
-      <c r="E26" s="19">
-        <v>70</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0.23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="14">
-        <v>100</v>
-      </c>
-      <c r="E27" s="19">
-        <v>70</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0.23</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F22" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1827,12 +1888,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1854,19 +1915,19 @@
         <v>76</v>
       </c>
       <c r="B1" s="3" t="str">
-        <f>LEFT(Sheet3!E6,3)</f>
+        <f>LEFT(原始数据!E6,3)</f>
         <v>德能厂</v>
       </c>
       <c r="C1" s="3" t="str">
-        <f>LEFT(Sheet3!F6,3)</f>
+        <f>LEFT(原始数据!F6,3)</f>
         <v>华舜厂</v>
       </c>
       <c r="D1" s="3" t="str">
-        <f>LEFT(Sheet3!G6,3)</f>
+        <f>LEFT(原始数据!G6,3)</f>
         <v>蓝天厂</v>
       </c>
       <c r="E1" s="3" t="str">
-        <f>LEFT(Sheet3!H6,3)</f>
+        <f>LEFT(原始数据!H6,3)</f>
         <v>萧燃厂</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1876,47 +1937,47 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="str">
-        <f>LEFT(Sheet3!K6,3)</f>
+        <f>LEFT(原始数据!K6,3)</f>
         <v>新城厂</v>
       </c>
       <c r="I1" s="3" t="str">
-        <f>LEFT(Sheet3!L6,3)</f>
+        <f>LEFT(原始数据!L6,3)</f>
         <v>唐绍厂</v>
       </c>
       <c r="J1" s="3" t="str">
-        <f>LEFT(Sheet3!M6,3)</f>
+        <f>LEFT(原始数据!M6,3)</f>
         <v>吉能厂</v>
       </c>
       <c r="K1" s="3" t="str">
-        <f>LEFT(Sheet3!N6,3)</f>
+        <f>LEFT(原始数据!N6,3)</f>
         <v>长燃厂</v>
       </c>
       <c r="L1" s="3" t="str">
-        <f>LEFT(Sheet3!O6,3)</f>
+        <f>LEFT(原始数据!O6,3)</f>
         <v>柯城厂</v>
       </c>
       <c r="M1" s="3" t="str">
-        <f>LEFT(Sheet3!P6,3)</f>
+        <f>LEFT(原始数据!P6,3)</f>
         <v>常山厂</v>
       </c>
       <c r="N1" s="3" t="str">
-        <f>LEFT(Sheet3!Q6,3)</f>
+        <f>LEFT(原始数据!Q6,3)</f>
         <v>下沙厂</v>
       </c>
       <c r="O1" s="3" t="str">
-        <f>LEFT(Sheet3!R6,3)</f>
+        <f>LEFT(原始数据!R6,3)</f>
         <v>桐燃厂</v>
       </c>
       <c r="P1" s="3" t="str">
-        <f>LEFT(Sheet3!S6,3)</f>
+        <f>LEFT(原始数据!S6,3)</f>
         <v>龙游厂</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <f>LEFT(Sheet3!T6,3)</f>
+        <f>LEFT(原始数据!T6,3)</f>
         <v>浔宝厂</v>
       </c>
       <c r="R1" s="3" t="str">
-        <f>LEFT(Sheet3!U6,3)</f>
+        <f>LEFT(原始数据!U6,3)</f>
         <v>新泓口</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -1931,79 +1992,79 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <f>VLOOKUP(B1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(B1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.25</v>
       </c>
       <c r="C2" s="2">
-        <f>VLOOKUP(C1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(C1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.19500000000000001</v>
       </c>
       <c r="D2" s="2">
-        <f>VLOOKUP(D1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(D1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.253</v>
       </c>
       <c r="E2" s="2">
-        <f>VLOOKUP(E1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(E1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.20300000000000001</v>
       </c>
       <c r="F2" s="2">
-        <f>VLOOKUP(F1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(F1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.19900000000000001</v>
       </c>
       <c r="G2" s="2">
-        <f>VLOOKUP(G1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(G1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.20300000000000001</v>
       </c>
       <c r="H2" s="2">
-        <f>VLOOKUP(H1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(H1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.23</v>
       </c>
       <c r="I2" s="2">
-        <f>VLOOKUP(I1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(I1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.20399999999999999</v>
       </c>
       <c r="J2" s="2">
-        <f>VLOOKUP(J1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(J1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.23</v>
       </c>
       <c r="K2" s="2">
-        <f>VLOOKUP(K1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(K1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.2</v>
       </c>
       <c r="L2" s="2">
-        <f>VLOOKUP(L1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(L1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.23</v>
       </c>
       <c r="M2" s="2">
-        <f>VLOOKUP(M1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(M1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.20499999999999999</v>
       </c>
       <c r="N2" s="2">
-        <f>VLOOKUP(N1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(N1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.22900000000000001</v>
       </c>
       <c r="O2" s="2">
-        <f>VLOOKUP(O1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(O1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.22500000000000001</v>
       </c>
       <c r="P2" s="2">
-        <f>VLOOKUP(P1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(P1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.22</v>
       </c>
       <c r="Q2" s="2">
-        <f>VLOOKUP(Q1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(Q1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.23</v>
       </c>
       <c r="R2" s="2">
-        <f>VLOOKUP(R1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(R1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.23799999999999999</v>
       </c>
       <c r="S2" s="2">
-        <f>VLOOKUP(S1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(S1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.23200000000000001</v>
       </c>
       <c r="T2" s="2">
-        <f>VLOOKUP(T1,Sheet1!$B$1:$F$27,5,FALSE)</f>
+        <f>VLOOKUP(T1,参数!$A$1:$E$22,5,FALSE)</f>
         <v>0.19500000000000001</v>
       </c>
     </row>
@@ -2012,79 +2073,79 @@
         <v>77</v>
       </c>
       <c r="B3" s="2">
-        <f>SUM(Sheet3!E103:E294)/12</f>
+        <f>SUM(原始数据!E103:E294)/12</f>
         <v>-4.923333333333333E-2</v>
       </c>
       <c r="C3" s="2">
-        <f>SUM(Sheet3!F103:F294)/12</f>
+        <f>SUM(原始数据!F103:F294)/12</f>
         <v>1173.1886499999998</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(Sheet3!G103:G294)/12</f>
+        <f>SUM(原始数据!G103:G294)/12</f>
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>SUM(Sheet3!H103:H294)/12</f>
+        <f>SUM(原始数据!H103:H294)/12</f>
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>SUM(Sheet3!I103:I294)/12</f>
+        <f>SUM(原始数据!I103:I294)/12</f>
         <v>-6.9020666666666664</v>
       </c>
       <c r="G3" s="2">
-        <f>SUM(Sheet3!J103:J294)/12</f>
+        <f>SUM(原始数据!J103:J294)/12</f>
         <v>848.11570833333326</v>
       </c>
       <c r="H3" s="2">
-        <f>SUM(Sheet3!K103:K294)/12</f>
+        <f>SUM(原始数据!K103:K294)/12</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f>SUM(Sheet3!L103:L294)/12</f>
+        <f>SUM(原始数据!L103:L294)/12</f>
         <v>1445.9080833333337</v>
       </c>
       <c r="J3" s="2">
-        <f>SUM(Sheet3!M103:M294)/12</f>
+        <f>SUM(原始数据!M103:M294)/12</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>SUM(Sheet3!N103:N294)/12</f>
+        <f>SUM(原始数据!N103:N294)/12</f>
         <v>11.686499999999997</v>
       </c>
       <c r="L3" s="2">
-        <f>SUM(Sheet3!O103:O294)/12</f>
+        <f>SUM(原始数据!O103:O294)/12</f>
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f>SUM(Sheet3!P103:P294)/12</f>
+        <f>SUM(原始数据!P103:P294)/12</f>
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <f>SUM(Sheet3!Q103:Q294)/12</f>
+        <f>SUM(原始数据!Q103:Q294)/12</f>
         <v>376.67585833333322</v>
       </c>
       <c r="O3" s="2">
-        <f>SUM(Sheet3!R103:R294)/12</f>
+        <f>SUM(原始数据!R103:R294)/12</f>
         <v>783.03797499999985</v>
       </c>
       <c r="P3" s="2">
-        <f>SUM(Sheet3!S103:S294)/12</f>
+        <f>SUM(原始数据!S103:S294)/12</f>
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <f>SUM(Sheet3!T103:T294)/12</f>
+        <f>SUM(原始数据!T103:T294)/12</f>
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <f>SUM(Sheet3!U103:U294)/12</f>
+        <f>SUM(原始数据!U103:U294)/12</f>
         <v>171.60896666666653</v>
       </c>
       <c r="S3" s="2">
-        <f>SUM(Sheet3!V103:V294)/12</f>
+        <f>SUM(原始数据!V103:V294)/12</f>
         <v>0.3337750000000001</v>
       </c>
       <c r="T3" s="2">
-        <f>SUM(Sheet3!W103:W294)/12</f>
+        <f>SUM(原始数据!W103:W294)/12</f>
         <v>1651.4011583333329</v>
       </c>
     </row>
@@ -2232,83 +2293,83 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B6" cm="1">
-        <f t="array" ref="B6">LOOKUP(1,0/(ISNUMBER(Sheet3!E7:E294)),Sheet3!E7:E294)</f>
+        <f t="array" ref="B6">LOOKUP(1,0/(ISNUMBER(原始数据!E7:E294)),原始数据!E7:E294)</f>
         <v>-1.9E-2</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6">LOOKUP(1,0/(ISNUMBER(Sheet3!F7:F294)),Sheet3!F7:F294)</f>
+        <f t="array" ref="C6">LOOKUP(1,0/(ISNUMBER(原始数据!F7:F294)),原始数据!F7:F294)</f>
         <v>268.39859999999999</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" ref="D6">LOOKUP(1,0/(ISNUMBER(Sheet3!G7:G294)),Sheet3!G7:G294)</f>
+        <f t="array" ref="D6">LOOKUP(1,0/(ISNUMBER(原始数据!G7:G294)),原始数据!G7:G294)</f>
         <v>0</v>
       </c>
       <c r="E6" cm="1">
-        <f t="array" ref="E6">LOOKUP(1,0/(ISNUMBER(Sheet3!H7:H294)),Sheet3!H7:H294)</f>
+        <f t="array" ref="E6">LOOKUP(1,0/(ISNUMBER(原始数据!H7:H294)),原始数据!H7:H294)</f>
         <v>0</v>
       </c>
       <c r="F6" cm="1">
-        <f t="array" ref="F6">LOOKUP(1,0/(ISNUMBER(Sheet3!I7:I294)),Sheet3!I7:I294)</f>
+        <f t="array" ref="F6">LOOKUP(1,0/(ISNUMBER(原始数据!I7:I294)),原始数据!I7:I294)</f>
         <v>-1.7315</v>
       </c>
       <c r="G6" cm="1">
-        <f t="array" ref="G6">LOOKUP(1,0/(ISNUMBER(Sheet3!J7:J294)),Sheet3!J7:J294)</f>
+        <f t="array" ref="G6">LOOKUP(1,0/(ISNUMBER(原始数据!J7:J294)),原始数据!J7:J294)</f>
         <v>0</v>
       </c>
       <c r="H6" cm="1">
-        <f t="array" ref="H6">LOOKUP(1,0/(ISNUMBER(Sheet3!K7:K294)),Sheet3!K7:K294)</f>
+        <f t="array" ref="H6">LOOKUP(1,0/(ISNUMBER(原始数据!K7:K294)),原始数据!K7:K294)</f>
         <v>0</v>
       </c>
       <c r="I6" cm="1">
-        <f t="array" ref="I6">LOOKUP(1,0/(ISNUMBER(Sheet3!L7:L294)),Sheet3!L7:L294)</f>
+        <f t="array" ref="I6">LOOKUP(1,0/(ISNUMBER(原始数据!L7:L294)),原始数据!L7:L294)</f>
         <v>348.18430000000001</v>
       </c>
       <c r="J6" cm="1">
-        <f t="array" ref="J6">LOOKUP(1,0/(ISNUMBER(Sheet3!M7:M294)),Sheet3!M7:M294)</f>
+        <f t="array" ref="J6">LOOKUP(1,0/(ISNUMBER(原始数据!M7:M294)),原始数据!M7:M294)</f>
         <v>0</v>
       </c>
       <c r="K6" cm="1">
-        <f t="array" ref="K6">LOOKUP(1,0/(ISNUMBER(Sheet3!N7:N294)),Sheet3!N7:N294)</f>
+        <f t="array" ref="K6">LOOKUP(1,0/(ISNUMBER(原始数据!N7:N294)),原始数据!N7:N294)</f>
         <v>3.6484000000000001</v>
       </c>
       <c r="L6" cm="1">
-        <f t="array" ref="L6">LOOKUP(1,0/(ISNUMBER(Sheet3!O7:O294)),Sheet3!O7:O294)</f>
+        <f t="array" ref="L6">LOOKUP(1,0/(ISNUMBER(原始数据!O7:O294)),原始数据!O7:O294)</f>
         <v>0</v>
       </c>
       <c r="M6" cm="1">
-        <f t="array" ref="M6">LOOKUP(1,0/(ISNUMBER(Sheet3!P7:P294)),Sheet3!P7:P294)</f>
+        <f t="array" ref="M6">LOOKUP(1,0/(ISNUMBER(原始数据!P7:P294)),原始数据!P7:P294)</f>
         <v>0</v>
       </c>
       <c r="N6" cm="1">
-        <f t="array" ref="N6">LOOKUP(1,0/(ISNUMBER(Sheet3!Q7:Q294)),Sheet3!Q7:Q294)</f>
+        <f t="array" ref="N6">LOOKUP(1,0/(ISNUMBER(原始数据!Q7:Q294)),原始数据!Q7:Q294)</f>
         <v>92.593500000000006</v>
       </c>
       <c r="O6" cm="1">
-        <f t="array" ref="O6">LOOKUP(1,0/(ISNUMBER(Sheet3!R7:R294)),Sheet3!R7:R294)</f>
+        <f t="array" ref="O6">LOOKUP(1,0/(ISNUMBER(原始数据!R7:R294)),原始数据!R7:R294)</f>
         <v>193.458</v>
       </c>
       <c r="P6" cm="1">
-        <f t="array" ref="P6">LOOKUP(1,0/(ISNUMBER(Sheet3!S7:S294)),Sheet3!S7:S294)</f>
+        <f t="array" ref="P6">LOOKUP(1,0/(ISNUMBER(原始数据!S7:S294)),原始数据!S7:S294)</f>
         <v>0</v>
       </c>
       <c r="Q6" cm="1">
-        <f t="array" ref="Q6">LOOKUP(1,0/(ISNUMBER(Sheet3!T7:T294)),Sheet3!T7:T294)</f>
+        <f t="array" ref="Q6">LOOKUP(1,0/(ISNUMBER(原始数据!T7:T294)),原始数据!T7:T294)</f>
         <v>0</v>
       </c>
       <c r="R6" cm="1">
-        <f t="array" ref="R6">LOOKUP(1,0/(ISNUMBER(Sheet3!U7:U294)),Sheet3!U7:U294)</f>
+        <f t="array" ref="R6">LOOKUP(1,0/(ISNUMBER(原始数据!U7:U294)),原始数据!U7:U294)</f>
         <v>0.12970000000000001</v>
       </c>
       <c r="S6" cm="1">
-        <f t="array" ref="S6">LOOKUP(1,0/(ISNUMBER(Sheet3!V7:V294)),Sheet3!V7:V294)</f>
+        <f t="array" ref="S6">LOOKUP(1,0/(ISNUMBER(原始数据!V7:V294)),原始数据!V7:V294)</f>
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="T6" cm="1">
-        <f t="array" ref="T6">LOOKUP(1,0/(ISNUMBER(Sheet3!W7:W294)),Sheet3!W7:W294)</f>
+        <f t="array" ref="T6">LOOKUP(1,0/(ISNUMBER(原始数据!W7:W294)),原始数据!W7:W294)</f>
         <v>408.55360000000002</v>
       </c>
     </row>
@@ -2319,11 +2380,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W294"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
@@ -2336,25 +2397,25 @@
     <row r="1" spans="1:23" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="D6" t="s">

--- a/assets/燃机名称表.xlsx
+++ b/assets/燃机名称表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\TheFourthDispatcher\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C554B88B-E800-409F-84DD-064783CE58AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8FDFC8-2A30-4756-9E73-0FB9EC8AD46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="别名" sheetId="4" r:id="rId1"/>
     <sheet name="参数" sheetId="1" r:id="rId2"/>
     <sheet name="当日量测" sheetId="2" r:id="rId3"/>
     <sheet name="原始数据" sheetId="3" r:id="rId4"/>
+    <sheet name="启动成本" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -357,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>别名</t>
   </si>
@@ -682,6 +683,14 @@
     <t>当前功率</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>时刻</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动成本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -690,7 +699,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +779,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -812,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -884,6 +901,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,7 +1447,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2397,25 +2416,25 @@
     <row r="1" spans="1:23" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
@@ -12135,4 +12154,797 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEDC7CB-7C9C-4FAF-87F0-F231CEC9DBDC}">
+  <dimension ref="A1:B97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="25">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="25">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="25">
+        <v>32</v>
+      </c>
+      <c r="B33" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="B34" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="B35" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="25">
+        <v>35</v>
+      </c>
+      <c r="B36" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="25">
+        <v>36</v>
+      </c>
+      <c r="B37" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="25">
+        <v>37</v>
+      </c>
+      <c r="B38" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="25">
+        <v>38</v>
+      </c>
+      <c r="B39" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="25">
+        <v>39</v>
+      </c>
+      <c r="B40" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="25">
+        <v>40</v>
+      </c>
+      <c r="B41" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="25">
+        <v>41</v>
+      </c>
+      <c r="B42" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="25">
+        <v>42</v>
+      </c>
+      <c r="B43" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="25">
+        <v>43</v>
+      </c>
+      <c r="B44" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="25">
+        <v>44</v>
+      </c>
+      <c r="B45" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="25">
+        <v>45</v>
+      </c>
+      <c r="B46" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="25">
+        <v>46</v>
+      </c>
+      <c r="B47" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="25">
+        <v>47</v>
+      </c>
+      <c r="B48" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="25">
+        <v>48</v>
+      </c>
+      <c r="B49" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="25">
+        <v>49</v>
+      </c>
+      <c r="B50" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="25">
+        <v>50</v>
+      </c>
+      <c r="B51" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="25">
+        <v>51</v>
+      </c>
+      <c r="B52" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="25">
+        <v>52</v>
+      </c>
+      <c r="B53" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="25">
+        <v>53</v>
+      </c>
+      <c r="B54" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="25">
+        <v>54</v>
+      </c>
+      <c r="B55" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="25">
+        <v>55</v>
+      </c>
+      <c r="B56" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="25">
+        <v>56</v>
+      </c>
+      <c r="B57" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="25">
+        <v>57</v>
+      </c>
+      <c r="B58" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="25">
+        <v>58</v>
+      </c>
+      <c r="B59" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="25">
+        <v>59</v>
+      </c>
+      <c r="B60" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="25">
+        <v>60</v>
+      </c>
+      <c r="B61" s="25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="25">
+        <v>61</v>
+      </c>
+      <c r="B62" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="25">
+        <v>62</v>
+      </c>
+      <c r="B63" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="25">
+        <v>63</v>
+      </c>
+      <c r="B64" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="25">
+        <v>64</v>
+      </c>
+      <c r="B65" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="25">
+        <v>65</v>
+      </c>
+      <c r="B66" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="25">
+        <v>68</v>
+      </c>
+      <c r="B69" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="25">
+        <v>69</v>
+      </c>
+      <c r="B70" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="25">
+        <v>70</v>
+      </c>
+      <c r="B71" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="25">
+        <v>71</v>
+      </c>
+      <c r="B72" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="25">
+        <v>72</v>
+      </c>
+      <c r="B73" s="25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="25">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="25">
+        <v>74</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="25">
+        <v>75</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="25">
+        <v>76</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="25">
+        <v>77</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="25">
+        <v>78</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="25">
+        <v>79</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="25">
+        <v>80</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="25">
+        <v>81</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="25">
+        <v>82</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="25">
+        <v>83</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="25">
+        <v>84</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="25">
+        <v>85</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="25">
+        <v>86</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="25">
+        <v>87</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="25">
+        <v>88</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="25">
+        <v>89</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="25">
+        <v>90</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="25">
+        <v>91</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="25">
+        <v>92</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="25">
+        <v>93</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="25">
+        <v>94</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="25">
+        <v>95</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="25">
+        <v>96</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/燃机名称表.xlsx
+++ b/assets/燃机名称表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyunhui/Code/TheFourthDispatcher/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B557F3F7-51DA-454E-90B3-2D6EA488E635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3480F886-F272-794A-83E5-F41D3281AAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="别名" sheetId="4" r:id="rId1"/>
@@ -668,9 +668,6 @@
     <t>新泓口电厂</t>
   </si>
   <si>
-    <t>镇海电厂</t>
-  </si>
-  <si>
     <t>浔宝电厂</t>
   </si>
   <si>
@@ -807,6 +804,10 @@
     <t>镇海油改气</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>镇海燃机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -815,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +887,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -928,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1004,6 +1013,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -1545,7 +1560,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>3</v>
@@ -1601,7 +1616,7 @@
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>18</v>
@@ -1609,7 +1624,7 @@
     </row>
     <row r="37" spans="1:2" ht="17">
       <c r="A37" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>18</v>
@@ -1657,7 +1672,7 @@
     </row>
     <row r="43" spans="1:2" ht="16">
       <c r="A43" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>31</v>
@@ -1665,7 +1680,7 @@
     </row>
     <row r="44" spans="1:2" ht="16">
       <c r="A44" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>31</v>
@@ -1681,7 +1696,7 @@
     </row>
     <row r="46" spans="1:2" ht="15">
       <c r="A46" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>36</v>
@@ -1705,7 +1720,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>40</v>
@@ -1721,7 +1736,7 @@
     </row>
     <row r="51" spans="1:2" ht="15">
       <c r="A51" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>44</v>
@@ -1729,7 +1744,7 @@
     </row>
     <row r="52" spans="1:2" ht="15">
       <c r="A52" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>46</v>
@@ -1745,7 +1760,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>44</v>
@@ -1765,7 +1780,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2173,8 +2188,8 @@
       <c r="E20" s="20">
         <v>0.19900000000000001</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>74</v>
+      <c r="F20" s="27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1">
@@ -2193,8 +2208,8 @@
       <c r="E21" s="20">
         <v>0.246</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>74</v>
+      <c r="F21" s="27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1">
@@ -2214,7 +2229,7 @@
         <v>0.23</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2261,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="str">
         <f>LEFT(原始数据!E6,3)</f>
@@ -2419,7 +2434,7 @@
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3">
         <f>SUM(原始数据!E103:E295)/12</f>
@@ -2508,7 +2523,7 @@
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3">
         <f>B2*B3/10</f>
@@ -2597,7 +2612,7 @@
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3">
         <f>B6-B4</f>
@@ -2686,7 +2701,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2754,7 +2769,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <f t="array" ref="B7">LOOKUP(1,0/(ISNUMBER(原始数据!E7:E295)),原始数据!E7:E295)</f>
@@ -2868,100 +2883,100 @@
     <row r="1" spans="1:28"/>
     <row r="2" spans="1:28"/>
     <row r="5" spans="1:28">
-      <c r="D5" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
+      <c r="D5" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
     </row>
     <row r="6" spans="1:28">
       <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>83</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>85</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>86</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>90</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>91</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>92</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>93</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>94</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>95</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>96</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>97</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>98</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>99</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>101</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>102</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>103</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>105</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -21415,18 +21430,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -21434,127 +21449,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1000</v>
+      <c r="B3" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1000</v>
+      <c r="B4" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1000</v>
+      <c r="B5" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1000</v>
+      <c r="B6" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1000</v>
+      <c r="B7" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1000</v>
+      <c r="B8" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1000</v>
+      <c r="B9" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1000</v>
+      <c r="B10" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1000</v>
+      <c r="B11" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1000</v>
+      <c r="B12" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1000</v>
+      <c r="B13" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1000</v>
+      <c r="B14" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1000</v>
+      <c r="B15" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1000</v>
+      <c r="B16" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1000</v>
+      <c r="B17" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -21569,7 +21584,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21577,7 +21592,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21585,7 +21600,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21593,7 +21608,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21601,7 +21616,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21609,7 +21624,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21617,7 +21632,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21625,7 +21640,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21633,7 +21648,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="28">
         <v>750</v>
       </c>
     </row>
@@ -21641,7 +21656,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="28">
         <v>750</v>
       </c>
     </row>
@@ -22010,191 +22025,191 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>1000</v>
+      <c r="B75" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>1000</v>
+      <c r="B76" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>1000</v>
+      <c r="B77" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>1000</v>
+      <c r="B78" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>1000</v>
+      <c r="B79" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>1000</v>
+      <c r="B80" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>1000</v>
+      <c r="B81" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>1000</v>
+      <c r="B82" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>1000</v>
+      <c r="B83" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>1000</v>
+      <c r="B84" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>1000</v>
+      <c r="B85" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>1000</v>
+      <c r="B86" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>1000</v>
+      <c r="B87" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>1000</v>
+      <c r="B88" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>1000</v>
+      <c r="B89" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>1000</v>
+      <c r="B90" s="29">
+        <v>3000</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>1000</v>
+      <c r="B91" s="29">
+        <v>50000</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>1000</v>
+      <c r="B92" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>1000</v>
+      <c r="B93" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>1000</v>
+      <c r="B94" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>1000</v>
+      <c r="B95" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>1000</v>
+      <c r="B96" s="30">
+        <v>50000</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>1000</v>
+      <c r="B97" s="30">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
